--- a/Test/Data/建筑.xlsx
+++ b/Test/Data/建筑.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq792\Documents\source\ExcelConverter\Test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ztail\source\github\ztail\ExcelToJson\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF0A4CA-A571-4B30-8D2B-31F5D6C029FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30BFC6-0AF4-4373-8B59-2ECDC79FB8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="标签页" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>&amp;ID.script</t>
+  </si>
+  <si>
+    <t>#&amp;ID.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54CFDD-12CD-4B47-83E3-1BA1E4A74926}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +579,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -588,7 +592,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -856,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828E47EE-5C95-46D4-99A2-D172B8ECDE51}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Test/Data/建筑.xlsx
+++ b/Test/Data/建筑.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ztail\source\github\ztail\ExcelToJson\Test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq792\Documents\source\ExcelToJson\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30BFC6-0AF4-4373-8B59-2ECDC79FB8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5843C-8F3E-4552-A335-2A0E9868566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +81,6 @@
   </si>
   <si>
     <t>buildDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;ID.name</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>&amp;ID.page</t>
   </si>
   <si>
-    <t>&amp;ID.magerInGroup</t>
-  </si>
-  <si>
     <t>&amp;ID.usePaint</t>
   </si>
   <si>
@@ -219,6 +204,18 @@
   </si>
   <si>
     <t>#&amp;ID.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;ID.mergeInGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +558,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,15 +576,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -609,14 +606,14 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -630,19 +627,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -650,54 +647,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -705,19 +702,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -729,124 +726,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +860,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,26 +876,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -926,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Data/建筑.xlsx
+++ b/Test/Data/建筑.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq792\Documents\source\ExcelToJson\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5843C-8F3E-4552-A335-2A0E9868566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731F538-258B-42FC-9584-7306E8D56743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="标签页" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,106 +116,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栅栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;ID.name</t>
+  </si>
+  <si>
+    <t>&amp;ID.id</t>
+  </si>
+  <si>
+    <t>&amp;ID.order</t>
+  </si>
+  <si>
+    <t>&amp;ID.page</t>
+  </si>
+  <si>
+    <t>&amp;ID.usePaint</t>
+  </si>
+  <si>
+    <t>&amp;ID.useErase</t>
+  </si>
+  <si>
+    <t>&amp;ID.editorOnly</t>
+  </si>
+  <si>
+    <t>&amp;ID.group</t>
+  </si>
+  <si>
+    <t>&amp;ID.icon</t>
+  </si>
+  <si>
+    <t>&amp;ID.effect</t>
+  </si>
+  <si>
+    <t>&amp;ID.displayRule</t>
+  </si>
+  <si>
+    <t>#&amp;ID.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;ID.mergeInGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>墙`道源</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>slg_build_well_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>well</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>well2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栅栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;ID.name</t>
-  </si>
-  <si>
-    <t>&amp;ID.id</t>
-  </si>
-  <si>
-    <t>&amp;ID.order</t>
-  </si>
-  <si>
-    <t>&amp;ID.page</t>
-  </si>
-  <si>
-    <t>&amp;ID.usePaint</t>
-  </si>
-  <si>
-    <t>&amp;ID.useErase</t>
-  </si>
-  <si>
-    <t>&amp;ID.editorOnly</t>
-  </si>
-  <si>
-    <t>&amp;ID.group</t>
-  </si>
-  <si>
-    <t>&amp;ID.icon</t>
-  </si>
-  <si>
-    <t>&amp;ID.effect</t>
-  </si>
-  <si>
-    <t>&amp;ID.displayRule</t>
-  </si>
-  <si>
-    <t>&amp;ID.script</t>
-  </si>
-  <si>
-    <t>#&amp;ID.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;ID.mergeInGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slg_build_well_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,12 +558,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -606,7 +588,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,45 +629,45 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -728,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -773,42 +755,42 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -831,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -845,7 +827,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +839,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828E47EE-5C95-46D4-99A2-D172B8ECDE51}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,67 +850,49 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
